--- a/2-Tests/OpenExcelSdk.Tests/10-Files/GetCellTypeAndValueCustom.xlsx
+++ b/2-Tests/OpenExcelSdk.Tests/10-Files/GetCellTypeAndValueCustom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a990f455bb745add/ProjetsDev/10-Pierlam/OpenExcelSdk/Dev/OpenExcelSdk/2-Tests/OpenExcelSdk.Tests/10-Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_AD4DB114E441178AC67DF4536695FF58683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58DEC011-6B4F-434F-9C20-BA406E74815A}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_AD4DB114E441178AC67DF4536695FF58683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA8D6D22-96E3-4F49-8C91-5D0183E0A910}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="2475" windowWidth="16260" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="2985" windowWidth="16260" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>dateTime</t>
+    <t>dateTime, fmt custom</t>
   </si>
 </sst>
 </file>
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,8 +89,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,6 +106,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,15 +377,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
